--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/costs_and_prices/Full_Costs_CFR_Shandong.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/costs_and_prices/Full_Costs_CFR_Shandong.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,46 +494,46 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46.6252689207896</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36.3015925246798</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.1333069312974</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>38.7267740255412</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>39.1731864633292</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.1731864633292</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.2287066990364</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.2287066990364</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.2287066990364</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.2287066990364</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.2287066990364</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39.2287066990364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -542,1381 +542,1447 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42.26890725088727</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.96000975401</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>41.998749041739</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>42.5973625957377</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>43.0701202517355</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>43.0701202517355</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.1334488656214</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>43.1334488656214</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>43.1334488656214</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43.1334488656214</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>43.1334488656214</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>43.1334488656214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Existing Opn.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weipa</t>
+          <t>Gove</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23.80138387062571</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9116563886595</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.3939582387757</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.2189335204684</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.4198054380038</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.4198054380038</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.4198054380038</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4198054380038</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.4198054380038</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>23.4198054380038</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4198054380038</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>23.4198054380038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gove</t>
+          <t>AMR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.94365048933695</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>19.4636513747257</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20.6268307861399</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>20.5307098329571</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>20.69672907711</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20.69672907711</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>20.69672907711</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.69672907711</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>20.69672907711</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>20.69672907711</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>20.69672907711</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>20.69672907711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Expansion</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AMR</t>
+          <t>Gujarat &amp; Maharashtra</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.41053401968917</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>47.106040327928</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>49.1666594849073</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.7676889518963</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>50.2425761468851</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>50.2425761468851</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>50.3061509708937</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>50.3061509708937</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>50.3061509708937</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>50.3061509708937</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>50.3061509708937</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>50.3061509708937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gujarat &amp; Maharashtra</t>
+          <t>West Kalimantan</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.37545314243787</v>
+        <v>32.64733544265</v>
       </c>
       <c r="D7" t="n">
-        <v>36.6687258875088</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>40.2913538422871</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>39.870711049674</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>39.9990741384617</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.9035510787871</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.8080280191124</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.8080280191124</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>39.8080280191124</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>39.8080280191124</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>39.8080280191124</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39.8080280191124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>West Kalimantan</t>
+          <t>Henan-Chine</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.78078637918338</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>35.190237655191</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>37.4565595526883</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>37.201669577482</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>37.2391802087097</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>37.1791626098395</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>37.1191450109693</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>37.1191450109693</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.1191450109693</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>37.1191450109693</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>37.1191450109693</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>37.1191450109693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Henan-Chine</t>
+          <t>Kuantan</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44.72603025505369</v>
+        <v>40.43000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>42.4146855502632</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>44.4684536942132</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>45.0694831612023</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>45.544370356191</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>45.544370356191</v>
+        <v>40</v>
       </c>
       <c r="I9" t="n">
-        <v>45.6079451801997</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
-        <v>45.6079451801997</v>
+        <v>40</v>
       </c>
       <c r="K9" t="n">
-        <v>45.6079451801997</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
-        <v>45.6079451801997</v>
+        <v>40</v>
       </c>
       <c r="M9" t="n">
-        <v>45.6079451801997</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>45.6079451801997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kuantan</t>
+          <t>Aurum Xinfa-Fiji</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44.19152690933542</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aurum Xinfa-Fiji</t>
+          <t>Dom. Rep.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>37.9753853180051</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.9850126905738</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>37.2129656031412</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>36.9159948558458</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>37.2230807056952</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>37.2230807056952</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>37.2230807056952</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>37.2230807056952</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.2230807056952</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>37.2230807056952</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.2230807056952</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>37.2230807056952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Expansion</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dom. Rep.</t>
+          <t>Discovery Bay</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>53.32209328077457</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>50.1937056452558</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>52.9829564108921</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>53.7994890958056</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>54.4271250804189</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>54.4271250804189</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>54.5139733117405</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>54.5139733117405</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>54.5139733117405</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>54.5139733117405</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>54.5139733117405</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>54.5139733117405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Discovery Bay</t>
+          <t>Awaso</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>60.37151004768171</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4418836844167</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.669007763869</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.669954684691</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>59.9721866813846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>59.7813692904029</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>59.5905518994212</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5905518994212</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>59.5905518994212</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>59.5905518994212</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>59.5905518994212</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>59.5905518994212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Awaso</t>
+          <t>CBG</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>60.12950053653734</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2156082754413</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>60.3674608626489</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>59.4043035448844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>59.7394587741637</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>59.5495265525315</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.3595943308993</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.3595943308993</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>59.3595943308993</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>59.3595943308993</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>59.3595943308993</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>59.3595943308993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CBG</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>51.25314388903972</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>45.7983903658655</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.4038112540639</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.9795757839695</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>45.434255013214</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>45.434255013214</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.4951656223883</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.4951656223883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>45.4951656223883</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>45.4951656223883</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>45.4951656223883</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>45.4951656223883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>GAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50.7926391192338</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>48.4851456014958</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.5427649324983</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>51.1437943994874</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51.6186815944761</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>51.6186815944761</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>51.6822564184848</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.6822564184848</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>51.6822564184848</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>51.6822564184848</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>51.6822564184848</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>51.6822564184848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GAC</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>41.79961851504825</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>39.506768303915</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>41.5256197263687</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>42.1195445565875</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>42.5887491624607</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>42.5887491624607</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.6515747948679</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>42.6515747948679</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.6515747948679</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>42.6515747948679</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>42.6515747948679</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>42.6515747948679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t xml:space="preserve"> Cape York</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Metallica</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42.56854127626328</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>39.5278041654905</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>42.734618003203</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>42.3675665612007</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>42.4417126443115</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>42.357016670931</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>42.2723206975504</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>42.2723206975504</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>42.2723206975504</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>42.2723206975504</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>42.2723206975504</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>42.2723206975504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t xml:space="preserve"> Queensland"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Metallica</t>
+          <t>Aurukun</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>37.04716008017569</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.298946678528</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.7951177193188</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.6200930010115</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.8209649185469</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.8209649185469</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.8209649185469</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>35.8209649185469</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>35.8209649185469</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>35.8209649185469</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>35.8209649185469</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.8209649185469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aurukun</t>
+          <t>Metro LT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>36.94107539730128</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>35.0293313410445</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>36.5599067737138</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>36.3794280054613</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>36.5802999229967</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>36.5802999229967</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.5802999229967</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>36.5802999229967</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>36.5802999229967</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>36.5802999229967</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>36.5802999229967</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>36.5802999229967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Expansion</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Metro LT</t>
+          <t>MRN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33.54171043657109</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>29.1604943198414</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27.1327021343</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>27.379408264813</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>27.5191060226213</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>27.5191060226213</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Expansion</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MRN</t>
+          <t>Juruti</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>54.84804463924004</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.2069102049659</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>47.7529425094118</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>48.5111811260754</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>49.1543705961578</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>49.1543705961578</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.2333504018554</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.2333504018554</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>49.2333504018554</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>49.2333504018554</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>49.2333504018554</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>49.2333504018554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t xml:space="preserve"> State of Minas Gerais"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Juruti</t>
+          <t>Mirai</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>44.81943442603149</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>41.6264697449857</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>44.3403360023035</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>45.1505908304699</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>45.8381381950408</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>45.8381381950408</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>45.9225283727337</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.9225283727337</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>45.9225283727337</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>45.9225283727337</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>45.9225283727337</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>45.9225283727337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mirai</t>
+          <t>Metro BH1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>70.28654747214816</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>64.38326650664339</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68.66737165566801</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>67.99736513335741</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>68.7128524167115</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>68.7128524167115</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>68.7128524167115</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>68.7128524167115</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>68.7128524167115</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>68.7128524167115</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>68.7128524167115</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>68.7128524167115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t xml:space="preserve"> western Cape York Peninsula"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Metro BH1</t>
+          <t>Amrun</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>33.54171043657109</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t xml:space="preserve"> Para State"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amrun</t>
+          <t>Rondon do Para</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>38.31670400665561</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>36.4882791796167</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>37.9753223398948</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>37.8002976215874</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>38.0011695391229</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>38.0011695391229</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>38.0011695391229</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.0011695391229</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>38.0011695391229</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>38.0011695391229</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>38.0011695391229</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>38.0011695391229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Expansion</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rondon do Para</t>
+          <t>Huntly</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>80.88060589717384</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>71.6898277509202</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>74.4202090191431</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>75.23046384730949</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>75.9180112118803</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>75.9180112118803</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.00240138957329</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.00240138957329</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>76.00240138957329</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>76.00240138957329</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>76.00240138957329</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>76.00240138957329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t xml:space="preserve"> Dak Nong Province"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Huntly</t>
+          <t>Vietnam Others</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32.34931606786027</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.970253983991</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>32.6858960173471</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>32.1710022401607</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>32.2643689681622</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.1649477457063</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>32.0655265232504</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>32.0655265232504</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>32.0655265232504</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>32.0655265232504</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>32.0655265232504</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>32.0655265232504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Vietnam Others</t>
+          <t>SMB Malapouya</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29.1274508059187</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>27.2857956011389</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>29.2970208595586</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>29.0473984289559</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>29.048994626192</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>28.9948875011858</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>28.9407803761795</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.9407803761795</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>28.9407803761795</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>28.9407803761795</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>28.9407803761795</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>28.9407803761795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SMB Malapouya</t>
+          <t>Rundi</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45.99129829634859</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rundi</t>
+          <t>Metro Blend</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>49.94999467846687</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>47.6445216799808</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>49.7041615302352</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>50.3051909972243</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>50.780078192213</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>50.780078192213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.8436530162217</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.8436530162217</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>50.8436530162217</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>50.8436530162217</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>50.8436530162217</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>50.8436530162217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Existing Opn.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Metro Blend</t>
+          <t>Seydisehir</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>33.54171043657109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>29.1604943198414</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>27.1327021343</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>27.379408264813</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>27.5191060226213</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>27.5191060226213</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>27.5438503631226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dabiss N</t>
+          <t>Dian Dian</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>53.79791156847602</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1955,507 +2021,433 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amrun HT</t>
+          <t>Dynamic</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29.94083501774259</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dian Dian</t>
+          <t>GDM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>40.89420687481535</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>38.5945723022213</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>40.6216032372723</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>41.2173176956827</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>41.6875199048913</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>41.6875199048913</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.75055306663</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>41.75055306663</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>41.75055306663</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>41.75055306663</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>41.75055306663</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>41.75055306663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>Ashapura Guinea</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>39.57149737663849</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>37.250294896343</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>39.294205264788</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>39.8952347317771</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>40.3701219267658</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>40.3701219267658</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>40.4336967507745</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>40.4336967507745</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>40.4336967507745</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>40.4336967507745</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>40.4336967507745</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>40.4336967507745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GDM</t>
+          <t>SMB Kaboye</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>48.47544726927011</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>46.1670879310662</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>48.2238414416028</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>48.8248709085918</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>49.2997581035806</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.2997581035806</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3633329275893</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>49.3633329275893</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>49.3633329275893</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>49.3633329275893</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>49.3633329275893</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>49.3633329275893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ashapura Guinea</t>
+          <t>SMB Dabiss S</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>54.39445441744161</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>52.0975185484402</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>54.1656955281792</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>54.7667249951683</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>55.241612190157</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>55.241612190157</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.3051870141657</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.3051870141657</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>55.3051870141657</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>55.3051870141657</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>55.3051870141657</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>55.3051870141657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SMB Kaboye</t>
+          <t>AGB2A</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>47.43082505434854</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>45.1232441094285</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>47.1807760132491</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>47.7818054802382</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>48.2566926752269</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>48.2566926752269</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.3202674992356</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>48.3202674992356</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>48.3202674992356</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>48.3202674992356</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>48.3202674992356</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>48.3202674992356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Existing Opn.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SMB Dabiss S</t>
+          <t>Mokanji</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>51.48543037124954</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>49.1844376353434</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>51.2485577481778</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>51.8495872151668</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>52.3244744101556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>52.3244744101556</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>52.3880492341643</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.3880492341643</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>52.3880492341643</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>52.3880492341643</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>52.3880492341643</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>52.3880492341643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Existing Opn.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AGB2A</t>
+          <t>CBK Kindia</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>45.98310004400767</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>43.6704694760841</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>45.7229517569011</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>46.3239812238901</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>46.7988684188789</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>46.7988684188789</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>46.8624432428876</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>46.8624432428876</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>46.8624432428876</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>46.8624432428876</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>46.8624432428876</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>46.8624432428876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mokanji</t>
+          <t>SPIC</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>51.42791029933702</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>56.4584611583804</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>60.301360096407</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>59.7792481262498</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>60.4223512104006</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>60.4223512104006</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>60.4223512104006</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.4223512104006</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>60.4223512104006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>60.4223512104006</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>60.4223512104006</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>60.4223512104006</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Guinea</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SMB Santou-Houda</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>50.2365352065049</v>
-      </c>
-      <c r="D43" t="n">
-        <v>47.9244913229857</v>
-      </c>
-      <c r="E43" t="n">
-        <v>49.9775602882071</v>
-      </c>
-      <c r="F43" t="n">
-        <v>50.5785897551962</v>
-      </c>
-      <c r="G43" t="n">
-        <v>51.0534769501849</v>
-      </c>
-      <c r="H43" t="n">
-        <v>51.0534769501849</v>
-      </c>
-      <c r="I43" t="n">
-        <v>51.1170517741936</v>
-      </c>
-      <c r="J43" t="n">
-        <v>51.1170517741936</v>
-      </c>
-      <c r="K43" t="n">
-        <v>51.1170517741936</v>
-      </c>
-      <c r="L43" t="n">
-        <v>51.1170517741936</v>
-      </c>
-      <c r="M43" t="n">
-        <v>51.1170517741936</v>
-      </c>
-      <c r="N43" t="n">
-        <v>51.1170517741936</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Guinea</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SPIC</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>51.02878802876712</v>
-      </c>
-      <c r="D44" t="n">
-        <v>48.7255107009331</v>
-      </c>
-      <c r="E44" t="n">
-        <v>50.7873462218395</v>
-      </c>
-      <c r="F44" t="n">
-        <v>51.3883756888286</v>
-      </c>
-      <c r="G44" t="n">
-        <v>51.8632628838173</v>
-      </c>
-      <c r="H44" t="n">
-        <v>51.8632628838173</v>
-      </c>
-      <c r="I44" t="n">
-        <v>51.926837707826</v>
-      </c>
-      <c r="J44" t="n">
-        <v>51.926837707826</v>
-      </c>
-      <c r="K44" t="n">
-        <v>51.926837707826</v>
-      </c>
-      <c r="L44" t="n">
-        <v>51.926837707826</v>
-      </c>
-      <c r="M44" t="n">
-        <v>51.926837707826</v>
-      </c>
-      <c r="N44" t="n">
-        <v>51.926837707826</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
